--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1148.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1148.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.739595662576767</v>
+        <v>1.159824728965759</v>
       </c>
       <c r="B1">
-        <v>2.355149895917882</v>
+        <v>2.406866312026978</v>
       </c>
       <c r="C1">
-        <v>2.555438678370974</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.160332065654401</v>
+        <v>2.386054039001465</v>
       </c>
       <c r="E1">
-        <v>2.204776663751298</v>
+        <v>1.230137825012207</v>
       </c>
     </row>
   </sheetData>
